--- a/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
+++ b/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\详细方案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE5AE2-AD7D-4902-A822-646FC365212E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C745E-062C-42CA-9A12-982D0A90DCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="60" windowWidth="25755" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1275" windowWidth="27420" windowHeight="12945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="459">
   <si>
     <t>塔台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1252,10 +1252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提供减伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1379,10 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>储能单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加蓄能最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1511,10 +1503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>维护车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后勤舱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1540,6 +1528,327 @@
   </si>
   <si>
     <t>人员关押</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾等级分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾基础最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾默认初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤初始值（开启状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级消耗能源/单位时间（回合）  每个回合可以按1天计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾开启时每回合充能基础值（未受到攻击状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾开启时每回合充能基础值（受到攻击状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能基础值（两个状态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度基础值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折算后闪避率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级增加速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎区：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的副本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作区基础：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞船拆解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素加工（材料、生物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能通讯站</t>
+  </si>
+  <si>
+    <t>元素舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控分析室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁更多事件（任务系统）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如远古飞船分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单联络，组织联络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞船、装置拆解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东西自己放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活区基础：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船员：  血量、心情、偏见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息室</t>
+  </si>
+  <si>
+    <t>货舱</t>
+  </si>
+  <si>
+    <t>光合舱</t>
+  </si>
+  <si>
+    <t>生命保障系统</t>
+  </si>
+  <si>
+    <t>异种人相关（政治相关、回血）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量回复，战斗急救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗食物资源，心情回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐吧台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练相关装置/提高成员属性、最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物、生活用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹普分析仪</t>
+  </si>
+  <si>
+    <t>阵列扫描器</t>
+  </si>
+  <si>
+    <t>反馈天线</t>
+  </si>
+  <si>
+    <t>发射器协调室</t>
+  </si>
+  <si>
+    <t>成像分析光度计</t>
+  </si>
+  <si>
+    <t>偏导护盾投射器</t>
+  </si>
+  <si>
+    <t>塔台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外星生命分析/事件，图鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加探索范围，战斗相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加高级探索发现概率，战斗相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现新任务，顶替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴相关，额外做个图鉴系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全船护盾相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X个武器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单武器模块属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器模块模式（解锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似群星DIY舰船，2+2，1+4等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含充能时长、电力消耗，全部算在武器上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船武器属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能电力消耗（每回合）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程（格）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害下限-伤害上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源负载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1909,7 +2218,11 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
@@ -1918,10 +2231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1930,23 +2246,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1974,6 +2283,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228009</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47DFA7B-CC18-41E8-B3FC-F5774F473307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="7239000"/>
+          <a:ext cx="4723809" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2239,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B4BA45-D5B2-4CA8-9606-3608346E69BF}">
-  <dimension ref="A2:AO11"/>
+  <dimension ref="A2:AO40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2251,543 +2609,843 @@
     <col min="17" max="41" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" s="24" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="24" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>306</v>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="24" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C34" s="24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D35" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E36" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E37" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E38" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E39" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q40" s="24" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="51"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C2" s="38" t="s">
+      <c r="N1" s="40"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="38"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C3" s="38" t="s">
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C4" s="38" t="s">
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="38"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C5" s="38" t="s">
+      <c r="N4" s="39"/>
+      <c r="V4" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="38" t="s">
+      <c r="N5" s="39"/>
+      <c r="Q5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C7" s="38" t="s">
+      <c r="N6" s="39"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="38"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C9" s="50" t="s">
+      <c r="N7" s="39"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C9" s="38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C10" s="38" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C10" s="50" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K11" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="R11" s="50" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="K11" s="38" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R11" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y11" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE11" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL11" s="38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
+        <v>331</v>
+      </c>
+      <c r="R12" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>345</v>
+      </c>
+      <c r="R13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>347</v>
+      </c>
+      <c r="N14" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="R12" t="s">
+      <c r="E16" t="s">
+        <v>333</v>
+      </c>
+      <c r="L16" t="s">
+        <v>352</v>
+      </c>
+      <c r="N16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="K19" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="R19" s="38" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K13" t="s">
-        <v>347</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Y19" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE19" s="38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="L20" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="N20" t="s">
+        <v>341</v>
+      </c>
+      <c r="S20" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="U20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="N21" t="s">
+        <v>344</v>
+      </c>
+      <c r="S21" t="s">
+        <v>363</v>
+      </c>
+      <c r="U21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L22" t="s">
+        <v>336</v>
+      </c>
+      <c r="S22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" t="s">
+        <v>324</v>
+      </c>
+      <c r="L23" t="s">
+        <v>346</v>
+      </c>
+      <c r="S23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>350</v>
+      </c>
+      <c r="S24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>337</v>
+      </c>
+      <c r="R26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>343</v>
+      </c>
+      <c r="M27" t="s">
+        <v>346</v>
+      </c>
+      <c r="R27" t="s">
+        <v>367</v>
+      </c>
+      <c r="T27" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>338</v>
+      </c>
+      <c r="M28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R28" t="s">
+        <v>368</v>
+      </c>
+      <c r="T28" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>432</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
         <v>349</v>
       </c>
-      <c r="N14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16" t="s">
-        <v>334</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="M29" t="s">
         <v>354</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R29" t="s">
+        <v>371</v>
+      </c>
+      <c r="T29" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>340</v>
+      </c>
+      <c r="M30" t="s">
+        <v>356</v>
+      </c>
+      <c r="R30" t="s">
+        <v>374</v>
+      </c>
+      <c r="T30" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K19" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="R19" s="50" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="L20" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="N20" t="s">
-        <v>343</v>
-      </c>
-      <c r="S20" t="s">
-        <v>363</v>
-      </c>
-      <c r="U20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" t="s">
-        <v>322</v>
-      </c>
-      <c r="L21" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="N21" t="s">
-        <v>346</v>
-      </c>
-      <c r="S21" t="s">
-        <v>365</v>
-      </c>
-      <c r="U21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" t="s">
-        <v>323</v>
-      </c>
-      <c r="L22" t="s">
-        <v>337</v>
-      </c>
-      <c r="S22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" t="s">
-        <v>325</v>
-      </c>
-      <c r="L23" t="s">
-        <v>348</v>
-      </c>
-      <c r="S23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="L24" t="s">
-        <v>352</v>
-      </c>
-      <c r="S24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K26" t="s">
-        <v>338</v>
-      </c>
-      <c r="M26" t="s">
-        <v>339</v>
-      </c>
-      <c r="R26" t="s">
-        <v>371</v>
-      </c>
-      <c r="T26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K27" t="s">
-        <v>345</v>
-      </c>
-      <c r="M27" t="s">
-        <v>348</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="M31" t="s">
+        <v>357</v>
+      </c>
+      <c r="R31" t="s">
         <v>369</v>
       </c>
-      <c r="T27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K28" t="s">
-        <v>340</v>
-      </c>
-      <c r="M28" t="s">
-        <v>341</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="T31" t="s">
         <v>370</v>
       </c>
-      <c r="T28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K29" t="s">
-        <v>351</v>
-      </c>
-      <c r="M29" t="s">
-        <v>356</v>
-      </c>
-      <c r="R29" t="s">
-        <v>374</v>
-      </c>
-      <c r="T29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K30" t="s">
-        <v>342</v>
-      </c>
-      <c r="M30" t="s">
-        <v>358</v>
-      </c>
-      <c r="R30" t="s">
-        <v>377</v>
-      </c>
-      <c r="T30" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
-        <v>357</v>
-      </c>
-      <c r="M31" t="s">
-        <v>359</v>
-      </c>
-      <c r="R31" t="s">
-        <v>372</v>
-      </c>
-      <c r="T31" t="s">
-        <v>373</v>
+      <c r="Y31" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>435</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="Y32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="R33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="50" t="s">
-        <v>308</v>
+      <c r="B38" s="38" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>309</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>316</v>
       </c>
       <c r="H39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>311</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>328</v>
+        <v>310</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>313</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="G43" s="50" t="s">
-        <v>331</v>
+        <v>312</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +3505,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2896,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D244AFB-F37F-42AE-A39C-25624FA098CD}">
   <dimension ref="A3:AQ111"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2923,6 +3581,11 @@
         <v>299</v>
       </c>
     </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C8" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>288</v>
@@ -3125,14 +3788,14 @@
       <c r="C24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="H24" s="39" t="s">
+      <c r="F24" s="41"/>
+      <c r="H24" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="41"/>
       <c r="S24" s="27" t="s">
         <v>106</v>
       </c>
@@ -4847,10 +5510,10 @@
       <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="5" t="s">
         <v>144</v>
       </c>
@@ -4859,10 +5522,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="41"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="5" t="s">
         <v>139</v>
       </c>
@@ -4879,17 +5542,17 @@
       <c r="D3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
@@ -4904,17 +5567,17 @@
       <c r="D4" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="40"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
@@ -4923,17 +5586,17 @@
       <c r="D5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="40"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
@@ -4950,17 +5613,17 @@
       <c r="D6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="40"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="8"/>
@@ -4977,17 +5640,17 @@
       <c r="D7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="40"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
@@ -5004,17 +5667,17 @@
       <c r="D8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="40"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="8"/>
@@ -5059,10 +5722,10 @@
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="7" t="s">
         <v>140</v>
       </c>
@@ -5071,10 +5734,10 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="42"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="7" t="s">
         <v>142</v>
       </c>
@@ -5085,17 +5748,17 @@
       <c r="D12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="40"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
@@ -5104,17 +5767,17 @@
       <c r="D13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="40"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="8"/>
@@ -5123,17 +5786,17 @@
       <c r="D14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="8"/>
@@ -5142,17 +5805,17 @@
       <c r="D15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="40"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="8"/>
@@ -5161,17 +5824,17 @@
       <c r="D16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="40"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="8"/>
@@ -5180,17 +5843,17 @@
       <c r="D17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="40"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="8"/>
@@ -5226,10 +5889,10 @@
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
@@ -5238,10 +5901,10 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="42"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="7" t="s">
         <v>143</v>
       </c>
@@ -5252,17 +5915,17 @@
       <c r="D21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="40"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="8"/>
@@ -5271,17 +5934,17 @@
       <c r="D22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="40"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="8"/>
@@ -5290,17 +5953,17 @@
       <c r="D23" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="40"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
@@ -5309,17 +5972,17 @@
       <c r="D24" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="40" t="s">
+      <c r="L24" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="40"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="8"/>
@@ -5328,36 +5991,36 @@
       <c r="D25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="40"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="44"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
@@ -5417,10 +6080,10 @@
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="9"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -6076,10 +6739,10 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="48" t="s">
+      <c r="N80" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O80" s="48"/>
+      <c r="O80" s="51"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
       <c r="R80" s="11"/>
@@ -6822,6 +7485,9 @@
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N80:O80"/>
     <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="L25:M25"/>
@@ -6846,22 +7512,19 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
+++ b/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
@@ -8,29 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C745E-062C-42CA-9A12-982D0A90DCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192027CE-C0D8-4931-B116-E9E85E19E442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1275" windowWidth="27420" windowHeight="12945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体" sheetId="6" r:id="rId1"/>
     <sheet name="基础方块" sheetId="1" r:id="rId2"/>
-    <sheet name="暂时需求" sheetId="2" r:id="rId3"/>
-    <sheet name="舱室属性" sheetId="3" r:id="rId4"/>
-    <sheet name="科技树" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
+    <sheet name="讨论" sheetId="7" r:id="rId3"/>
+    <sheet name="暂时需求" sheetId="2" r:id="rId4"/>
+    <sheet name="舱室属性" sheetId="3" r:id="rId5"/>
+    <sheet name="科技树" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="481">
   <si>
     <t>塔台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1379,10 +1386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>湮灭反应堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电力生产速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1399,10 +1402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反应物箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>概率增加X点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1447,10 +1446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共振分束器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>停机冷却时间、停机概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1627,228 +1622,329 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>元素舱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发实验室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控分析室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁更多事件（任务系统）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如远古飞船分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单联络，组织联络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞船、装置拆解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东西自己放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活区基础：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船员：  血量、心情、偏见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息室</t>
+  </si>
+  <si>
+    <t>货舱</t>
+  </si>
+  <si>
+    <t>光合舱</t>
+  </si>
+  <si>
+    <t>生命保障系统</t>
+  </si>
+  <si>
+    <t>异种人相关（政治相关、回血）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量回复，战斗急救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗食物资源，心情回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐吧台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练相关装置/提高成员属性、最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物、生活用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹普分析仪</t>
+  </si>
+  <si>
+    <t>阵列扫描器</t>
+  </si>
+  <si>
+    <t>反馈天线</t>
+  </si>
+  <si>
+    <t>发射器协调室</t>
+  </si>
+  <si>
+    <t>成像分析光度计</t>
+  </si>
+  <si>
+    <t>偏导护盾投射器</t>
+  </si>
+  <si>
+    <t>塔台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外星生命分析/事件，图鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加探索范围，战斗相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加高级探索发现概率，战斗相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现新任务，顶替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴相关，额外做个图鉴系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全船护盾相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X个武器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单武器模块属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器模块模式（解锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似群星DIY舰船，2+2，1+4等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含充能时长、电力消耗，全部算在武器上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船武器属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能电力消耗（每回合）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程（格）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害下限-伤害上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源负载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通加成装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30种（特性建筑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个特性建筑部分细分等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>多功能通讯站</t>
-  </si>
-  <si>
-    <t>元素舱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发实验室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主控分析室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁更多事件（任务系统）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如远古飞船分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单交接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单联络，组织联络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆解室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆解室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞船、装置拆解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东西自己放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活区基础：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船员：  血量、心情、偏见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息室</t>
-  </si>
-  <si>
-    <t>货舱</t>
-  </si>
-  <si>
-    <t>光合舱</t>
-  </si>
-  <si>
-    <t>生命保障系统</t>
-  </si>
-  <si>
-    <t>异种人相关（政治相关、回血）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量回复，战斗急救</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗食物资源，心情回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐吧台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练相关装置/提高成员属性、最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物、生活用品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虹普分析仪</t>
-  </si>
-  <si>
-    <t>阵列扫描器</t>
-  </si>
-  <si>
-    <t>反馈天线</t>
-  </si>
-  <si>
-    <t>发射器协调室</t>
-  </si>
-  <si>
-    <t>成像分析光度计</t>
-  </si>
-  <si>
-    <t>偏导护盾投射器</t>
-  </si>
-  <si>
-    <t>塔台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外星生命分析/事件，图鉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加探索范围，战斗相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加高级探索发现概率，战斗相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现新任务，顶替</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图鉴相关，额外做个图鉴系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全船护盾相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X个武器模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单武器模块属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器模块模式（解锁）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似群星DIY舰船，2+2，1+4等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>槽位类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含充能时长、电力消耗，全部算在武器上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰船武器属性：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能电力消耗（每回合）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射程（格）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害下限-伤害上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源负载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂界面，建一个反应堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停机界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备/卸载时间，其他加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单界面+升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小+特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情报图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练挂机界面（训练选项）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单界面+跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾方向性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入能量、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争迷雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个Cost，每个护盾消耗X点，可以分配Y个槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑本身附属建筑，区划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成大地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部整数，内部缩放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,19 +2330,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2255,7 +2342,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2636,82 +2732,82 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" s="33" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" s="33" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" s="33" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" s="33" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" s="24" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D17" s="24" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" s="24" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" s="24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" s="24" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" s="24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -2721,67 +2817,67 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C30" s="24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D31" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C34" s="24" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.2">
       <c r="D35" s="24" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E36" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>452</v>
-      </c>
       <c r="P36" s="24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E37" s="24" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E38" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E39" s="24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q39" s="24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.2">
       <c r="Q40" s="24" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -2794,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2842,7 +2938,7 @@
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
@@ -2914,10 +3010,10 @@
       </c>
       <c r="N4" s="39"/>
       <c r="V4" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Y4" s="38" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -2930,7 +3026,7 @@
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
@@ -2946,7 +3042,7 @@
       </c>
       <c r="N5" s="39"/>
       <c r="Q5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -3001,6 +3097,16 @@
       </c>
       <c r="N7" s="39"/>
     </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="E8" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C9" s="38" t="s">
         <v>314</v>
@@ -3019,13 +3125,13 @@
         <v>311</v>
       </c>
       <c r="Y11" s="38" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AE11" s="38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AL11" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -3033,24 +3139,24 @@
         <v>331</v>
       </c>
       <c r="R12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Y12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AE12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Y13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
@@ -3058,21 +3164,21 @@
         <v>306</v>
       </c>
       <c r="K14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Y14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="L15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Y15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -3086,13 +3192,13 @@
         <v>333</v>
       </c>
       <c r="L16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Y16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.2">
@@ -3113,13 +3219,13 @@
         <v>334</v>
       </c>
       <c r="R19" s="38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Y19" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AE19" s="38" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.2">
@@ -3127,13 +3233,13 @@
         <v>335</v>
       </c>
       <c r="N20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.2">
@@ -3144,16 +3250,16 @@
         <v>321</v>
       </c>
       <c r="L21" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="N21" t="s">
         <v>342</v>
       </c>
-      <c r="N21" t="s">
-        <v>344</v>
-      </c>
       <c r="S21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="U21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
@@ -3167,7 +3273,7 @@
         <v>336</v>
       </c>
       <c r="S22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
@@ -3178,278 +3284,434 @@
         <v>324</v>
       </c>
       <c r="L23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S24" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>459</v>
+      </c>
       <c r="K26" t="s">
         <v>12</v>
       </c>
       <c r="M26" t="s">
         <v>337</v>
       </c>
+      <c r="Q26" t="s">
+        <v>461</v>
+      </c>
       <c r="R26" t="s">
         <v>25</v>
       </c>
       <c r="T26" t="s">
+        <v>363</v>
+      </c>
+      <c r="X26" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>465</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>459</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>459</v>
+      </c>
+      <c r="R27" t="s">
+        <v>364</v>
+      </c>
+      <c r="T27" t="s">
+        <v>360</v>
+      </c>
+      <c r="X27" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>460</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>462</v>
+      </c>
+      <c r="R28" t="s">
+        <v>365</v>
+      </c>
+      <c r="T28" t="s">
+        <v>358</v>
+      </c>
+      <c r="X28" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>428</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>459</v>
+      </c>
+      <c r="K29" t="s">
+        <v>347</v>
+      </c>
+      <c r="M29" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>462</v>
+      </c>
+      <c r="R29" t="s">
+        <v>368</v>
+      </c>
+      <c r="T29" t="s">
+        <v>369</v>
+      </c>
+      <c r="X29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>472</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>459</v>
+      </c>
+      <c r="K30" t="s">
+        <v>339</v>
+      </c>
+      <c r="M30" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>463</v>
+      </c>
+      <c r="R30" t="s">
+        <v>371</v>
+      </c>
+      <c r="T30" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>417</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>459</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>459</v>
+      </c>
+      <c r="R31" t="s">
         <v>366</v>
       </c>
-      <c r="Y26" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>428</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>430</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="K27" t="s">
-        <v>343</v>
-      </c>
-      <c r="M27" t="s">
-        <v>346</v>
-      </c>
-      <c r="R27" t="s">
-        <v>367</v>
-      </c>
-      <c r="T27" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>423</v>
-      </c>
-      <c r="AL27" t="s">
+      <c r="T31" t="s">
+        <v>464</v>
+      </c>
+      <c r="X31" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL31" t="s">
         <v>431</v>
       </c>
-      <c r="AN27" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="K28" t="s">
-        <v>338</v>
-      </c>
-      <c r="M28" t="s">
-        <v>339</v>
-      </c>
-      <c r="R28" t="s">
-        <v>368</v>
-      </c>
-      <c r="T28" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>432</v>
-      </c>
-      <c r="AN28" t="s">
+      <c r="AN31" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="K29" t="s">
-        <v>349</v>
-      </c>
-      <c r="M29" t="s">
-        <v>354</v>
-      </c>
-      <c r="R29" t="s">
-        <v>371</v>
-      </c>
-      <c r="T29" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>433</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="K30" t="s">
-        <v>340</v>
-      </c>
-      <c r="M30" t="s">
-        <v>356</v>
-      </c>
-      <c r="R30" t="s">
-        <v>374</v>
-      </c>
-      <c r="T30" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>421</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>434</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="K31" t="s">
-        <v>355</v>
-      </c>
-      <c r="M31" t="s">
-        <v>357</v>
-      </c>
-      <c r="R31" t="s">
-        <v>369</v>
-      </c>
-      <c r="T31" t="s">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="X32" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
         <v>370</v>
       </c>
-      <c r="Y31" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>422</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>435</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="Y32" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="R33" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="38" t="s">
+      <c r="Y33" t="s">
+        <v>467</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AL34" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AL35" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B39" s="38" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>308</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G40" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>309</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="AL41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>310</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G42" s="38" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>311</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>312</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="G43" s="38" t="s">
+      <c r="D44" s="38"/>
+      <c r="G44" s="38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>313</v>
       </c>
     </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -3462,37 +3724,6 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3501,6 +3732,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5107294B-F4BC-44B0-90B1-B9A05E7707C4}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404F0C71-B978-4D0F-AAC9-1F10052389E1}">
   <dimension ref="B1:D6"/>
   <sheetViews>
@@ -3550,12 +3807,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D244AFB-F37F-42AE-A39C-25624FA098CD}">
   <dimension ref="A3:AQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3583,7 +3840,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C8" s="24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -5495,7 +5752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C0E6FC-92F2-4246-B1B8-0630D02CB68E}">
   <dimension ref="B1:AP139"/>
   <sheetViews>
@@ -5510,10 +5767,10 @@
       <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="5" t="s">
         <v>144</v>
       </c>
@@ -5522,10 +5779,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="44"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="5" t="s">
         <v>139</v>
       </c>
@@ -5539,7 +5796,7 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="49" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="42"/>
@@ -5564,7 +5821,7 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="49" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="42"/>
@@ -5583,7 +5840,7 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="49" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="42"/>
@@ -5610,7 +5867,7 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="49" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="42"/>
@@ -5637,7 +5894,7 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="42"/>
@@ -5664,7 +5921,7 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="49" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="42"/>
@@ -5722,7 +5979,7 @@
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="50" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="43"/>
@@ -5745,7 +6002,7 @@
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="49" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="42"/>
@@ -5764,7 +6021,7 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="42"/>
@@ -5783,7 +6040,7 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="49" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="42"/>
@@ -5802,7 +6059,7 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="49" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="42"/>
@@ -5821,7 +6078,7 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="49" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="42"/>
@@ -5840,7 +6097,7 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="49" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="42"/>
@@ -5889,7 +6146,7 @@
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="43"/>
@@ -5912,7 +6169,7 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="49" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="42"/>
@@ -5931,7 +6188,7 @@
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="49" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="42"/>
@@ -5950,7 +6207,7 @@
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="42"/>
@@ -5969,7 +6226,7 @@
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="49" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="42"/>
@@ -5988,7 +6245,7 @@
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="49" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="42"/>
@@ -6007,20 +6264,20 @@
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="47"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="47"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
@@ -6103,10 +6360,10 @@
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="9"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="49"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -6739,10 +6996,10 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="51" t="s">
+      <c r="N80" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="O80" s="51"/>
+      <c r="O80" s="44"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
       <c r="R80" s="11"/>
@@ -7480,14 +7737,27 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="L25:M25"/>
@@ -7504,27 +7774,14 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7532,7 +7789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E3C955-A319-4E7A-A5BE-6207C4A732F9}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
+++ b/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192027CE-C0D8-4931-B116-E9E85E19E442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E3014-D823-41BB-A9EE-5E2F565AED44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="498">
   <si>
     <t>塔台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1303,10 +1303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护盾模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1945,6 +1941,78 @@
   </si>
   <si>
     <t>外部整数，内部缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">护盾： </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾方向：上下左右（战斗模式用，或者某些事件用作判断条件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个方向的护盾属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾当前值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减伤概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾基础充能速度（回合，具体数值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾充能速度折算比率（当回合受到伤害越高，充能越慢）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾最大层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾当前层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾总分配值：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾计算：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总减伤/层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后根据层数进行属性折算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2430,6 +2498,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466238</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0536BB0A-8540-4003-AF23-AE343C3D1006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13935075"/>
+          <a:ext cx="3895238" cy="4142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2732,82 +2849,82 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C10" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D17" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -2817,67 +2934,67 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C30" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D31" s="24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C34" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.2">
       <c r="D35" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E36" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G36" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="P36" s="24" t="s">
         <v>448</v>
-      </c>
-      <c r="P36" s="24" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E37" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E38" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E39" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q39" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.2">
       <c r="Q40" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -2890,10 +3007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2938,7 +3055,7 @@
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
@@ -3010,10 +3127,10 @@
       </c>
       <c r="N4" s="39"/>
       <c r="V4" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y4" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -3026,7 +3143,7 @@
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
@@ -3042,7 +3159,7 @@
       </c>
       <c r="N5" s="39"/>
       <c r="Q5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -3099,7 +3216,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="E8" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
@@ -3125,38 +3242,38 @@
         <v>311</v>
       </c>
       <c r="Y11" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE11" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="AE11" s="38" t="s">
-        <v>389</v>
-      </c>
       <c r="AL11" s="38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
@@ -3164,446 +3281,446 @@
         <v>306</v>
       </c>
       <c r="K14" t="s">
+        <v>344</v>
+      </c>
+      <c r="N14" t="s">
         <v>345</v>
       </c>
-      <c r="N14" t="s">
-        <v>346</v>
-      </c>
       <c r="Y14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="L15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" t="s">
         <v>332</v>
       </c>
-      <c r="E16" t="s">
-        <v>333</v>
-      </c>
       <c r="L16" t="s">
+        <v>349</v>
+      </c>
+      <c r="N16" t="s">
         <v>350</v>
       </c>
-      <c r="N16" t="s">
-        <v>351</v>
-      </c>
       <c r="Y16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="38" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="K19" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R19" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y19" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE19" s="38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="L20" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S20" t="s">
+        <v>357</v>
+      </c>
+      <c r="U20" t="s">
         <v>358</v>
-      </c>
-      <c r="U20" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L21" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="N21" t="s">
         <v>341</v>
       </c>
-      <c r="N21" t="s">
-        <v>342</v>
-      </c>
       <c r="S21" t="s">
+        <v>359</v>
+      </c>
+      <c r="U21" t="s">
         <v>360</v>
-      </c>
-      <c r="U21" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" t="s">
         <v>323</v>
       </c>
-      <c r="D23" t="s">
-        <v>324</v>
-      </c>
       <c r="L23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K26" t="s">
         <v>12</v>
       </c>
       <c r="M26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R26" t="s">
         <v>25</v>
       </c>
       <c r="T26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X26" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD26" t="s">
         <v>469</v>
       </c>
-      <c r="Y26" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>470</v>
-      </c>
       <c r="AE26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K27" t="s">
         <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y27" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA27" t="s">
         <v>397</v>
       </c>
-      <c r="AA27" t="s">
-        <v>398</v>
-      </c>
       <c r="AD27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AE27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AL27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K28" t="s">
         <v>30</v>
       </c>
       <c r="M28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Y28" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA28" t="s">
         <v>399</v>
       </c>
-      <c r="AA28" t="s">
-        <v>400</v>
-      </c>
       <c r="AD28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AE28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AL28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AN28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="J29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q29" t="s">
+        <v>461</v>
+      </c>
+      <c r="R29" t="s">
+        <v>367</v>
+      </c>
+      <c r="T29" t="s">
+        <v>368</v>
+      </c>
+      <c r="X29" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD29" t="s">
         <v>462</v>
       </c>
-      <c r="R29" t="s">
-        <v>368</v>
-      </c>
-      <c r="T29" t="s">
-        <v>369</v>
-      </c>
-      <c r="X29" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>463</v>
-      </c>
       <c r="AE29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AK29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R30" t="s">
+        <v>370</v>
+      </c>
+      <c r="T30" t="s">
         <v>371</v>
       </c>
-      <c r="T30" t="s">
-        <v>372</v>
-      </c>
       <c r="AA30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AD30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AE30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AK30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AL30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.2">
       <c r="J31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K31" t="s">
         <v>26</v>
       </c>
       <c r="M31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y31" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA31" t="s">
         <v>404</v>
       </c>
-      <c r="AA31" t="s">
-        <v>405</v>
-      </c>
       <c r="AD31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AE31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AN31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.2">
       <c r="X32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Y32" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA32" t="s">
         <v>408</v>
       </c>
-      <c r="AA32" t="s">
-        <v>409</v>
-      </c>
       <c r="AL32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.2">
       <c r="R33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Y33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AL34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AL35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.2">
@@ -3619,7 +3736,7 @@
         <v>316</v>
       </c>
       <c r="H40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.2">
@@ -3627,10 +3744,10 @@
         <v>309</v>
       </c>
       <c r="H41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.2">
@@ -3638,7 +3755,7 @@
         <v>310</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.2">
@@ -3646,7 +3763,7 @@
         <v>311</v>
       </c>
       <c r="H43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.2">
@@ -3655,7 +3772,7 @@
       </c>
       <c r="D44" s="38"/>
       <c r="G44" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.2">
@@ -3663,19 +3780,110 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>480</v>
+      </c>
+      <c r="C61" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C68" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C69" s="38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C70" s="38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>493</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -3686,6 +3894,16 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -3696,22 +3914,12 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -3728,6 +3936,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3743,12 +3952,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3840,7 +4049,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C8" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">

--- a/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
+++ b/GameMaster/GameDesign/详细方案/扬陆舰设定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88E3014-D823-41BB-A9EE-5E2F565AED44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBEF538-677E-40FC-BAE0-0E94FD92C421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1425" windowWidth="21030" windowHeight="12945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="500">
   <si>
     <t>塔台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2013,6 +2013,14 @@
   </si>
   <si>
     <t>后根据层数进行属性折算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量计算：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180S结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2398,10 +2406,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2410,16 +2427,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3009,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3780,22 +3788,30 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G50" s="38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>480</v>
       </c>
@@ -3803,12 +3819,12 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>483</v>
       </c>
@@ -3888,6 +3904,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -3904,34 +3948,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3944,7 +3960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5107294B-F4BC-44B0-90B1-B9A05E7707C4}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5976,10 +5992,10 @@
       <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="5" t="s">
         <v>144</v>
       </c>
@@ -5988,10 +6004,10 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="48"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="5" t="s">
         <v>139</v>
       </c>
@@ -6005,7 +6021,7 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="42"/>
@@ -6030,7 +6046,7 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="45" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="42"/>
@@ -6049,7 +6065,7 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="45" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="42"/>
@@ -6076,7 +6092,7 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="42"/>
@@ -6103,7 +6119,7 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="42"/>
@@ -6130,7 +6146,7 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="45" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="42"/>
@@ -6188,7 +6204,7 @@
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="48" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="43"/>
@@ -6211,7 +6227,7 @@
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="45" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="42"/>
@@ -6230,7 +6246,7 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="42"/>
@@ -6249,7 +6265,7 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="45" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="42"/>
@@ -6268,7 +6284,7 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="45" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="42"/>
@@ -6287,7 +6303,7 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="42"/>
@@ -6306,7 +6322,7 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="45" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="42"/>
@@ -6355,7 +6371,7 @@
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="48" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="43"/>
@@ -6378,7 +6394,7 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="42"/>
@@ -6397,7 +6413,7 @@
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="42"/>
@@ -6416,7 +6432,7 @@
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="45" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="42"/>
@@ -6435,7 +6451,7 @@
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="42"/>
@@ -6454,7 +6470,7 @@
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="42"/>
@@ -6473,20 +6489,20 @@
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="45"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="45" t="s">
+      <c r="L26" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="45"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
@@ -6569,10 +6585,10 @@
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="9"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -7205,10 +7221,10 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="44" t="s">
+      <c r="N80" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O80" s="44"/>
+      <c r="O80" s="51"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
       <c r="R80" s="11"/>
@@ -7946,27 +7962,14 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="L25:M25"/>
@@ -7983,14 +7986,27 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
